--- a/biology/Médecine/1148_en_santé_et_médecine/1148_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1148_en_santé_et_médecine/1148_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1148_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1148_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1148 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1148_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1148_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sur une plainte adressée au pape Eugène III par Bernard de Clairvaux, le concile de Reims, rappelant les décisions prises à celui du Latran en 1139, défend aux moines d'étudier la médecine (« la physique[1] »).
-Mort de Guillaume de Saint-Thierry (né vers 1075), théologien, mystique, et auteur, parmi d'autres ouvrages, d'un unique traité « purement scientifique », le De natura corporis et animae, publié avant 1135 et dont la première partie porte sur l'anatomie et sur certains aspects de la physiologie du corps humain[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sur une plainte adressée au pape Eugène III par Bernard de Clairvaux, le concile de Reims, rappelant les décisions prises à celui du Latran en 1139, défend aux moines d'étudier la médecine (« la physique »).
+Mort de Guillaume de Saint-Thierry (né vers 1075), théologien, mystique, et auteur, parmi d'autres ouvrages, d'un unique traité « purement scientifique », le De natura corporis et animae, publié avant 1135 et dont la première partie porte sur l'anatomie et sur certains aspects de la physiologie du corps humain.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1148_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1148_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation de la maladrerie Saint-Lazare de Moingt par Guigues II, comte de Forez[3].
-Près de Winchester, capitale du Hampshire en Angleterre, première mention de la léproserie qui est à l'origine de St. Mary Magdalene's Hospital[4].
-Un petit hôpital, établi sur des terres appartenant à l'hôpital St. Leonard (en) d'York, est attesté à Bowes dans le comté de Durham en Angleterre[5].
-1147-1148 : fondation de St Katharine's Hospital (en), à Londres, par Mathilde de Boulogne, reine d'Angleterre[6].
-1148-1158 : fondation à Oxford, en Angleterre, de l'hôpital de Cold Norton, par Avelina, dame de Norton, et Robert de Chesney (en), évêque de Lincoln[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de la maladrerie Saint-Lazare de Moingt par Guigues II, comte de Forez.
+Près de Winchester, capitale du Hampshire en Angleterre, première mention de la léproserie qui est à l'origine de St. Mary Magdalene's Hospital.
+Un petit hôpital, établi sur des terres appartenant à l'hôpital St. Leonard (en) d'York, est attesté à Bowes dans le comté de Durham en Angleterre.
+1147-1148 : fondation de St Katharine's Hospital (en), à Londres, par Mathilde de Boulogne, reine d'Angleterre.
+1148-1158 : fondation à Oxford, en Angleterre, de l'hôpital de Cold Norton, par Avelina, dame de Norton, et Robert de Chesney (en), évêque de Lincoln.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1148_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1148_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Richard, « médecin cité à propos d'une donation faite à l'abbaye de Montbenoît en Franche-Comté[8] ».
-Fl. Seguin, l'un des « maîtres des premières écoles de médecine à Montpellier », d'après une inscription gravée dans le vestibule de la faculté de médecine de cette ville[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Richard, « médecin cité à propos d'une donation faite à l'abbaye de Montbenoît en Franche-Comté ».
+Fl. Seguin, l'un des « maîtres des premières écoles de médecine à Montpellier », d'après une inscription gravée dans le vestibule de la faculté de médecine de cette ville.
 .
 </t>
         </is>
